--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H2">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I2">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J2">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.047924</v>
+        <v>0.1113626666666667</v>
       </c>
       <c r="N2">
-        <v>0.143772</v>
+        <v>0.334088</v>
       </c>
       <c r="O2">
-        <v>0.004523918624404262</v>
+        <v>0.005543586609007977</v>
       </c>
       <c r="P2">
-        <v>0.005628995363396378</v>
+        <v>0.00750796989180202</v>
       </c>
       <c r="Q2">
-        <v>0.8836555718893334</v>
+        <v>2.422204928962667</v>
       </c>
       <c r="R2">
-        <v>7.952900147004001</v>
+        <v>21.799844360664</v>
       </c>
       <c r="S2">
-        <v>0.001440349309087877</v>
+        <v>0.002002612811538926</v>
       </c>
       <c r="T2">
-        <v>0.001960789987039687</v>
+        <v>0.002832772081377281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H3">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I3">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J3">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.362568</v>
       </c>
       <c r="O3">
-        <v>0.3889996078559396</v>
+        <v>0.2051344748022992</v>
       </c>
       <c r="P3">
-        <v>0.4840221875724928</v>
+        <v>0.2778243706129975</v>
       </c>
       <c r="Q3">
-        <v>75.98316846159733</v>
+        <v>89.63109463445599</v>
       </c>
       <c r="R3">
-        <v>683.8485161543759</v>
+        <v>806.6798517101039</v>
       </c>
       <c r="S3">
-        <v>0.1238517672241597</v>
+        <v>0.07410453850578635</v>
       </c>
       <c r="T3">
-        <v>0.1686030628251485</v>
+        <v>0.1048236916157664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H4">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I4">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J4">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.2390875</v>
+        <v>0.01920333333333333</v>
       </c>
       <c r="N4">
-        <v>12.478175</v>
+        <v>0.05761</v>
       </c>
       <c r="O4">
-        <v>0.5889559331553673</v>
+        <v>0.0009559338394223962</v>
       </c>
       <c r="P4">
-        <v>0.488548460191474</v>
+        <v>0.00129467130057564</v>
       </c>
       <c r="Q4">
-        <v>115.0405732593292</v>
+        <v>0.4176840412033333</v>
       </c>
       <c r="R4">
-        <v>690.243439555975</v>
+        <v>3.75915637083</v>
       </c>
       <c r="S4">
-        <v>0.1875149271756074</v>
+        <v>0.0003453297456740665</v>
       </c>
       <c r="T4">
-        <v>0.1701797331645171</v>
+        <v>0.000488482075405717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H5">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I5">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J5">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1856033333333333</v>
+        <v>15.767896</v>
       </c>
       <c r="N5">
-        <v>0.55681</v>
+        <v>31.535792</v>
       </c>
       <c r="O5">
-        <v>0.01752054036428885</v>
+        <v>0.7849192169532917</v>
       </c>
       <c r="P5">
-        <v>0.0218003568726368</v>
+        <v>0.7087048228315025</v>
       </c>
       <c r="Q5">
-        <v>3.422281522018889</v>
+        <v>342.961214505496</v>
       </c>
       <c r="R5">
-        <v>30.80053369817</v>
+        <v>2057.767287032976</v>
       </c>
       <c r="S5">
-        <v>0.005578282967429129</v>
+        <v>0.2835509555022633</v>
       </c>
       <c r="T5">
-        <v>0.007593881094257353</v>
+        <v>0.2673957494484118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.845061</v>
+        <v>21.750601</v>
       </c>
       <c r="H6">
-        <v>50.535183</v>
+        <v>65.251803</v>
       </c>
       <c r="I6">
-        <v>0.2908678170626081</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J6">
-        <v>0.3182312442151755</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.047924</v>
+        <v>0.06924100000000001</v>
       </c>
       <c r="N6">
-        <v>0.143772</v>
+        <v>0.207723</v>
       </c>
       <c r="O6">
-        <v>0.004523918624404262</v>
+        <v>0.003446787795978796</v>
       </c>
       <c r="P6">
-        <v>0.005628995363396378</v>
+        <v>0.004668165363122264</v>
       </c>
       <c r="Q6">
-        <v>0.8072827033640001</v>
+        <v>1.506033363841</v>
       </c>
       <c r="R6">
-        <v>7.265544330276001</v>
+        <v>13.554300274569</v>
       </c>
       <c r="S6">
-        <v>0.001315862334849345</v>
+        <v>0.001245147209870754</v>
       </c>
       <c r="T6">
-        <v>0.001791322198175083</v>
+        <v>0.001761308143542818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J7">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>4.120856</v>
+        <v>0.1113626666666667</v>
       </c>
       <c r="N7">
-        <v>12.362568</v>
+        <v>0.334088</v>
       </c>
       <c r="O7">
-        <v>0.3889996078559396</v>
+        <v>0.005543586609007977</v>
       </c>
       <c r="P7">
-        <v>0.4840221875724928</v>
+        <v>0.00750796989180202</v>
       </c>
       <c r="Q7">
-        <v>69.416070692216</v>
+        <v>1.875910913122667</v>
       </c>
       <c r="R7">
-        <v>624.744636229944</v>
+        <v>16.883198218104</v>
       </c>
       <c r="S7">
-        <v>0.1131474667752677</v>
+        <v>0.001550951855066199</v>
       </c>
       <c r="T7">
-        <v>0.1540309829789454</v>
+        <v>0.002193880459206496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J8">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.2390875</v>
+        <v>4.120856</v>
       </c>
       <c r="N8">
-        <v>12.478175</v>
+        <v>12.362568</v>
       </c>
       <c r="O8">
-        <v>0.5889559331553673</v>
+        <v>0.2051344748022992</v>
       </c>
       <c r="P8">
-        <v>0.488548460191474</v>
+        <v>0.2778243706129975</v>
       </c>
       <c r="Q8">
-        <v>105.0978095218375</v>
+        <v>69.416070692216</v>
       </c>
       <c r="R8">
-        <v>630.5868571310251</v>
+        <v>624.744636229944</v>
       </c>
       <c r="S8">
-        <v>0.171308326622973</v>
+        <v>0.05739130939447698</v>
       </c>
       <c r="T8">
-        <v>0.1554713843461409</v>
+        <v>0.08118219259839184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J9">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1856033333333333</v>
+        <v>0.01920333333333333</v>
       </c>
       <c r="N9">
-        <v>0.55681</v>
+        <v>0.05761</v>
       </c>
       <c r="O9">
-        <v>0.01752054036428885</v>
+        <v>0.0009559338394223962</v>
       </c>
       <c r="P9">
-        <v>0.0218003568726368</v>
+        <v>0.00129467130057564</v>
       </c>
       <c r="Q9">
-        <v>3.126499471803334</v>
+        <v>0.3234813214033334</v>
       </c>
       <c r="R9">
-        <v>28.13849524623</v>
+        <v>2.91133189263</v>
       </c>
       <c r="S9">
-        <v>0.005096161329518012</v>
+        <v>0.0002674455124708571</v>
       </c>
       <c r="T9">
-        <v>0.00693755469191406</v>
+        <v>0.0003783118617097478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.767255333333334</v>
+        <v>16.845061</v>
       </c>
       <c r="H10">
-        <v>14.301766</v>
+        <v>50.535183</v>
       </c>
       <c r="I10">
-        <v>0.082317371969549</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J10">
-        <v>0.09006138928307222</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.047924</v>
+        <v>15.767896</v>
       </c>
       <c r="N10">
-        <v>0.143772</v>
+        <v>31.535792</v>
       </c>
       <c r="O10">
-        <v>0.004523918624404262</v>
+        <v>0.7849192169532917</v>
       </c>
       <c r="P10">
-        <v>0.005628995363396378</v>
+        <v>0.7087048228315025</v>
       </c>
       <c r="Q10">
-        <v>0.2284659445946667</v>
+        <v>265.611169961656</v>
       </c>
       <c r="R10">
-        <v>2.056193501352</v>
+        <v>1593.667019769936</v>
       </c>
       <c r="S10">
-        <v>0.000372397092165056</v>
+        <v>0.2196000534442203</v>
       </c>
       <c r="T10">
-        <v>0.0005069551426954499</v>
+        <v>0.2070884253083036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.767255333333334</v>
+        <v>16.845061</v>
       </c>
       <c r="H11">
-        <v>14.301766</v>
+        <v>50.535183</v>
       </c>
       <c r="I11">
-        <v>0.082317371969549</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J11">
-        <v>0.09006138928307222</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.120856</v>
+        <v>0.06924100000000001</v>
       </c>
       <c r="N11">
-        <v>12.362568</v>
+        <v>0.207723</v>
       </c>
       <c r="O11">
-        <v>0.3889996078559396</v>
+        <v>0.003446787795978796</v>
       </c>
       <c r="P11">
-        <v>0.4840221875724928</v>
+        <v>0.004668165363122264</v>
       </c>
       <c r="Q11">
-        <v>19.64517274389867</v>
+        <v>1.166368868701</v>
       </c>
       <c r="R11">
-        <v>176.806554695088</v>
+        <v>10.497319818309</v>
       </c>
       <c r="S11">
-        <v>0.03202142541588607</v>
+        <v>0.0009643218918066977</v>
       </c>
       <c r="T11">
-        <v>0.04359171065661047</v>
+        <v>0.001364070037318763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H12">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I12">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J12">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>6.2390875</v>
+        <v>0.1113626666666667</v>
       </c>
       <c r="N12">
-        <v>12.478175</v>
+        <v>0.334088</v>
       </c>
       <c r="O12">
-        <v>0.5889559331553673</v>
+        <v>0.005543586609007977</v>
       </c>
       <c r="P12">
-        <v>0.488548460191474</v>
+        <v>0.00750796989180202</v>
       </c>
       <c r="Q12">
-        <v>29.74332315950834</v>
+        <v>0.9954059528986666</v>
       </c>
       <c r="R12">
-        <v>178.45993895705</v>
+        <v>8.958653576088</v>
       </c>
       <c r="S12">
-        <v>0.04848130462322321</v>
+        <v>0.0008229744271929465</v>
       </c>
       <c r="T12">
-        <v>0.04399935305694985</v>
+        <v>0.001164128666114011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H13">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I13">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J13">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1856033333333333</v>
+        <v>4.120856</v>
       </c>
       <c r="N13">
-        <v>0.55681</v>
+        <v>12.362568</v>
       </c>
       <c r="O13">
-        <v>0.01752054036428885</v>
+        <v>0.2051344748022992</v>
       </c>
       <c r="P13">
-        <v>0.0218003568726368</v>
+        <v>0.2778243706129975</v>
       </c>
       <c r="Q13">
-        <v>0.8848184807177779</v>
+        <v>36.833929324952</v>
       </c>
       <c r="R13">
-        <v>7.963366326460001</v>
+        <v>331.505363924568</v>
       </c>
       <c r="S13">
-        <v>0.001442244838274663</v>
+        <v>0.03045328571643953</v>
       </c>
       <c r="T13">
-        <v>0.001963370426816441</v>
+        <v>0.04307733230640956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.9391485</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H14">
-        <v>29.878297</v>
+        <v>26.815251</v>
       </c>
       <c r="I14">
-        <v>0.2579579565172923</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J14">
-        <v>0.1881502562153687</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,95 +1302,95 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.047924</v>
+        <v>0.01920333333333333</v>
       </c>
       <c r="N14">
-        <v>0.143772</v>
+        <v>0.05761</v>
       </c>
       <c r="O14">
-        <v>0.004523918624404262</v>
+        <v>0.0009559338394223962</v>
       </c>
       <c r="P14">
-        <v>0.005628995363396378</v>
+        <v>0.00129467130057564</v>
       </c>
       <c r="Q14">
-        <v>0.715943752714</v>
+        <v>0.1716474011233333</v>
       </c>
       <c r="R14">
-        <v>4.295662516284001</v>
+        <v>1.54482661011</v>
       </c>
       <c r="S14">
-        <v>0.001166980803801843</v>
+        <v>0.0001419133783631428</v>
       </c>
       <c r="T14">
-        <v>0.001059096919858151</v>
+        <v>0.0002007418777532512</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.938416999999999</v>
+      </c>
+      <c r="H15">
+        <v>26.815251</v>
+      </c>
+      <c r="I15">
+        <v>0.1484552303838214</v>
+      </c>
+      <c r="J15">
+        <v>0.1550523887136425</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>14.9391485</v>
-      </c>
-      <c r="H15">
-        <v>29.878297</v>
-      </c>
-      <c r="I15">
-        <v>0.2579579565172923</v>
-      </c>
-      <c r="J15">
-        <v>0.1881502562153687</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.120856</v>
+        <v>15.767896</v>
       </c>
       <c r="N15">
-        <v>12.362568</v>
+        <v>31.535792</v>
       </c>
       <c r="O15">
-        <v>0.3889996078559396</v>
+        <v>0.7849192169532917</v>
       </c>
       <c r="P15">
-        <v>0.4840221875724928</v>
+        <v>0.7087048228315025</v>
       </c>
       <c r="Q15">
-        <v>61.562079731116</v>
+        <v>140.940029660632</v>
       </c>
       <c r="R15">
-        <v>369.372478386696</v>
+        <v>845.640177963792</v>
       </c>
       <c r="S15">
-        <v>0.1003455439285462</v>
+        <v>0.1165253631854896</v>
       </c>
       <c r="T15">
-        <v>0.09106889860568776</v>
+        <v>0.1098863756729032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.9391485</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H16">
-        <v>29.878297</v>
+        <v>26.815251</v>
       </c>
       <c r="I16">
-        <v>0.2579579565172923</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J16">
-        <v>0.1881502562153687</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>6.2390875</v>
+        <v>0.06924100000000001</v>
       </c>
       <c r="N16">
-        <v>12.478175</v>
+        <v>0.207723</v>
       </c>
       <c r="O16">
-        <v>0.5889559331553673</v>
+        <v>0.003446787795978796</v>
       </c>
       <c r="P16">
-        <v>0.488548460191474</v>
+        <v>0.004668165363122264</v>
       </c>
       <c r="Q16">
-        <v>93.20665466699376</v>
+        <v>0.6189049314970001</v>
       </c>
       <c r="R16">
-        <v>372.826618667975</v>
+        <v>5.570144383473001</v>
       </c>
       <c r="S16">
-        <v>0.1519258689954935</v>
+        <v>0.0005116936763361762</v>
       </c>
       <c r="T16">
-        <v>0.09192051795864968</v>
+        <v>0.0007238101904623953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H17">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I17">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J17">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1856033333333333</v>
+        <v>0.1113626666666667</v>
       </c>
       <c r="N17">
-        <v>0.55681</v>
+        <v>0.334088</v>
       </c>
       <c r="O17">
-        <v>0.01752054036428885</v>
+        <v>0.005543586609007977</v>
       </c>
       <c r="P17">
-        <v>0.0218003568726368</v>
+        <v>0.00750796989180202</v>
       </c>
       <c r="Q17">
-        <v>2.772755758761667</v>
+        <v>0.8558633532013333</v>
       </c>
       <c r="R17">
-        <v>16.63653455257</v>
+        <v>5.135180119208</v>
       </c>
       <c r="S17">
-        <v>0.004519562789450688</v>
+        <v>0.0007076044208950053</v>
       </c>
       <c r="T17">
-        <v>0.004101742731173087</v>
+        <v>0.00066728893261204</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.922963333333333</v>
+        <v>7.6853705</v>
       </c>
       <c r="H18">
-        <v>8.768889999999999</v>
+        <v>15.370741</v>
       </c>
       <c r="I18">
-        <v>0.05047152777426636</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J18">
-        <v>0.05521964321542102</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.047924</v>
+        <v>4.120856</v>
       </c>
       <c r="N18">
-        <v>0.143772</v>
+        <v>12.362568</v>
       </c>
       <c r="O18">
-        <v>0.004523918624404262</v>
+        <v>0.2051344748022992</v>
       </c>
       <c r="P18">
-        <v>0.005628995363396378</v>
+        <v>0.2778243706129975</v>
       </c>
       <c r="Q18">
-        <v>0.1400800947866667</v>
+        <v>31.670305137148</v>
       </c>
       <c r="R18">
-        <v>1.26072085308</v>
+        <v>190.021830822888</v>
       </c>
       <c r="S18">
-        <v>0.0002283290845001406</v>
+        <v>0.02618414241282274</v>
       </c>
       <c r="T18">
-        <v>0.0003108311156280072</v>
+        <v>0.02469231102303514</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.922963333333333</v>
+        <v>7.6853705</v>
       </c>
       <c r="H19">
-        <v>8.768889999999999</v>
+        <v>15.370741</v>
       </c>
       <c r="I19">
-        <v>0.05047152777426636</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J19">
-        <v>0.05521964321542102</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>4.120856</v>
+        <v>0.01920333333333333</v>
       </c>
       <c r="N19">
-        <v>12.362568</v>
+        <v>0.05761</v>
       </c>
       <c r="O19">
-        <v>0.3889996078559396</v>
+        <v>0.0009559338394223962</v>
       </c>
       <c r="P19">
-        <v>0.4840221875724928</v>
+        <v>0.00129467130057564</v>
       </c>
       <c r="Q19">
-        <v>12.04511098994667</v>
+        <v>0.1475847315016667</v>
       </c>
       <c r="R19">
-        <v>108.40599890952</v>
+        <v>0.8855083890100001</v>
       </c>
       <c r="S19">
-        <v>0.01963340451207978</v>
+        <v>0.0001220190209997403</v>
       </c>
       <c r="T19">
-        <v>0.02672753250610064</v>
+        <v>0.0001150670344573275</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.922963333333333</v>
+        <v>7.6853705</v>
       </c>
       <c r="H20">
-        <v>8.768889999999999</v>
+        <v>15.370741</v>
       </c>
       <c r="I20">
-        <v>0.05047152777426636</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J20">
-        <v>0.05521964321542102</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.2390875</v>
+        <v>15.767896</v>
       </c>
       <c r="N20">
-        <v>12.478175</v>
+        <v>31.535792</v>
       </c>
       <c r="O20">
-        <v>0.5889559331553673</v>
+        <v>0.7849192169532917</v>
       </c>
       <c r="P20">
-        <v>0.488548460191474</v>
+        <v>0.7087048228315025</v>
       </c>
       <c r="Q20">
-        <v>18.23662399595833</v>
+        <v>121.182122765468</v>
       </c>
       <c r="R20">
-        <v>109.41974397575</v>
+        <v>484.728491061872</v>
       </c>
       <c r="S20">
-        <v>0.02972550573807008</v>
+        <v>0.100190065951001</v>
       </c>
       <c r="T20">
-        <v>0.02697747166521651</v>
+        <v>0.06298785045483618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.922963333333333</v>
+        <v>7.6853705</v>
       </c>
       <c r="H21">
-        <v>8.768889999999999</v>
+        <v>15.370741</v>
       </c>
       <c r="I21">
-        <v>0.05047152777426636</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J21">
-        <v>0.05521964321542102</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,338 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1856033333333333</v>
+        <v>0.06924100000000001</v>
       </c>
       <c r="N21">
-        <v>0.55681</v>
+        <v>0.207723</v>
       </c>
       <c r="O21">
-        <v>0.01752054036428885</v>
+        <v>0.003446787795978796</v>
       </c>
       <c r="P21">
-        <v>0.0218003568726368</v>
+        <v>0.004668165363122264</v>
       </c>
       <c r="Q21">
-        <v>0.5425117378777777</v>
+        <v>0.5321427387905001</v>
       </c>
       <c r="R21">
-        <v>4.8826056409</v>
+        <v>3.192856432743</v>
       </c>
       <c r="S21">
-        <v>0.0008842884396163597</v>
+        <v>0.0004399610675078818</v>
       </c>
       <c r="T21">
-        <v>0.001203807928475856</v>
+        <v>0.0004148944557989835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.990062666666667</v>
+      </c>
+      <c r="H22">
+        <v>14.970188</v>
+      </c>
+      <c r="I22">
+        <v>0.08287831086977776</v>
+      </c>
+      <c r="J22">
+        <v>0.08656131575618316</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1113626666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.334088</v>
+      </c>
+      <c r="O22">
+        <v>0.005543586609007977</v>
+      </c>
+      <c r="P22">
+        <v>0.00750796989180202</v>
+      </c>
+      <c r="Q22">
+        <v>0.5557066853937778</v>
+      </c>
+      <c r="R22">
+        <v>5.001360168544</v>
+      </c>
+      <c r="S22">
+        <v>0.0004594430943149002</v>
+      </c>
+      <c r="T22">
+        <v>0.000649899752492191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.990062666666667</v>
+      </c>
+      <c r="H23">
+        <v>14.970188</v>
+      </c>
+      <c r="I23">
+        <v>0.08287831086977776</v>
+      </c>
+      <c r="J23">
+        <v>0.08656131575618316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.120856</v>
+      </c>
+      <c r="N23">
+        <v>12.362568</v>
+      </c>
+      <c r="O23">
+        <v>0.2051344748022992</v>
+      </c>
+      <c r="P23">
+        <v>0.2778243706129975</v>
+      </c>
+      <c r="Q23">
+        <v>20.56332968030933</v>
+      </c>
+      <c r="R23">
+        <v>185.069967122784</v>
+      </c>
+      <c r="S23">
+        <v>0.01700119877277354</v>
+      </c>
+      <c r="T23">
+        <v>0.02404884306939453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.990062666666667</v>
+      </c>
+      <c r="H24">
+        <v>14.970188</v>
+      </c>
+      <c r="I24">
+        <v>0.08287831086977776</v>
+      </c>
+      <c r="J24">
+        <v>0.08656131575618316</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01920333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.05761</v>
+      </c>
+      <c r="O24">
+        <v>0.0009559338394223962</v>
+      </c>
+      <c r="P24">
+        <v>0.00129467130057564</v>
+      </c>
+      <c r="Q24">
+        <v>0.09582583674222223</v>
+      </c>
+      <c r="R24">
+        <v>0.86243253068</v>
+      </c>
+      <c r="S24">
+        <v>7.922618191458957E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001120684512495963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.990062666666667</v>
+      </c>
+      <c r="H25">
+        <v>14.970188</v>
+      </c>
+      <c r="I25">
+        <v>0.08287831086977776</v>
+      </c>
+      <c r="J25">
+        <v>0.08656131575618316</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.767896</v>
+      </c>
+      <c r="N25">
+        <v>31.535792</v>
+      </c>
+      <c r="O25">
+        <v>0.7849192169532917</v>
+      </c>
+      <c r="P25">
+        <v>0.7087048228315025</v>
+      </c>
+      <c r="Q25">
+        <v>78.68278916148267</v>
+      </c>
+      <c r="R25">
+        <v>472.096734968896</v>
+      </c>
+      <c r="S25">
+        <v>0.06505277887031745</v>
+      </c>
+      <c r="T25">
+        <v>0.06134642194704753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.990062666666667</v>
+      </c>
+      <c r="H26">
+        <v>14.970188</v>
+      </c>
+      <c r="I26">
+        <v>0.08287831086977776</v>
+      </c>
+      <c r="J26">
+        <v>0.08656131575618316</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.06924100000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.207723</v>
+      </c>
+      <c r="O26">
+        <v>0.003446787795978796</v>
+      </c>
+      <c r="P26">
+        <v>0.004668165363122264</v>
+      </c>
+      <c r="Q26">
+        <v>0.3455169291026667</v>
+      </c>
+      <c r="R26">
+        <v>3.109652361924</v>
+      </c>
+      <c r="S26">
+        <v>0.0002856639504572868</v>
+      </c>
+      <c r="T26">
+        <v>0.0004040825359993037</v>
       </c>
     </row>
   </sheetData>
